--- a/simulation/avgML-DSA-65_DSA_elapsed_time_parallel.xlsx
+++ b/simulation/avgML-DSA-65_DSA_elapsed_time_parallel.xlsx
@@ -323,7 +323,7 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>0.0534195733</v>
+        <v>0.1022823384</v>
       </c>
     </row>
     <row r="2">
@@ -331,7 +331,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.08999783565</v>
+        <v>0.03515795249999999</v>
       </c>
     </row>
     <row r="3">
@@ -339,7 +339,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.12594117773333335</v>
+        <v>0.049752832400000016</v>
       </c>
     </row>
     <row r="4">
@@ -347,7 +347,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.234272636675</v>
+        <v>0.062374867224999984</v>
       </c>
     </row>
     <row r="5">
@@ -355,7 +355,7 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>0.21181038200000002</v>
+        <v>0.0675031711</v>
       </c>
     </row>
     <row r="6">
@@ -363,7 +363,7 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>0.21995443276666662</v>
+        <v>0.06984271876666666</v>
       </c>
     </row>
     <row r="7">
@@ -371,7 +371,7 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <v>0.25541561144285724</v>
+        <v>0.07650126641428573</v>
       </c>
     </row>
     <row r="8">
@@ -379,7 +379,7 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <v>0.258730693525</v>
+        <v>0.08085118126250002</v>
       </c>
     </row>
     <row r="9">
@@ -387,7 +387,7 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <v>0.2899479129111111</v>
+        <v>0.10109256224444448</v>
       </c>
     </row>
   </sheetData>
